--- a/modelCatalog/instances/Variables/ECON_input.xlsx
+++ b/modelCatalog/instances/Variables/ECON_input.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deborahkhider/Documents/GitHub/Mint-ModelCatalog-Ontology/modelCatalog/instances/Variables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgarijo\Documents\GitHub\Mint-ModelCatalog-Ontology\modelCatalog\instances\Variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95159462-6A4C-D345-B931-C32ADDE3408A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{D9C228E7-9934-4842-8A83-65BB26DE6C92}"/>
+    <workbookView xWindow="384" yWindow="456" windowWidth="28044" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,9 +40,6 @@
     <t>Long Name</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>GSN</t>
   </si>
   <si>
@@ -180,12 +176,15 @@
   </si>
   <si>
     <t>cyclesdata.csv</t>
+  </si>
+  <si>
+    <t>units</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -544,16 +543,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EF696A-9997-B14A-AD8D-16547C4C517D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.69921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,187 +571,187 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
